--- a/vga/VGA.xlsx
+++ b/vga/VGA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,27 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>640*480@60   25.175MHz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>640*480@75   31.5MHz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>800*600@60   40.0MHz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>800*600@75   49.5MHz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1024*768@60   65MHz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>1024*768@75   78.8MHz</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,15 +33,53 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1280*720@60   74.25MHz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1280*1024@60   108MHz</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1440*900@60   106.47MHz</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1920*1080@60   130MHz</t>
+    <r>
+      <t xml:space="preserve">1024*768@60   65MHz </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OK</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>640*480@75   31.5MHz OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800*600@75   49.5MHz OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800*600@60   40.0MHz OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>640*480@60   25.175MHz X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1440*900@60   106.47MHz X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1920*1080@60   148.5MHz OK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -69,7 +87,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +115,15 @@
       <color theme="8"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -191,6 +218,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -200,7 +228,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -482,41 +509,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q19"/>
+  <dimension ref="A1:W19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="17" width="6.58203125" customWidth="1"/>
+    <col min="1" max="24" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="7"/>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="7"/>
-      <c r="M1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="7"/>
-    </row>
-    <row r="2" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="8"/>
+      <c r="G1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="8"/>
+      <c r="M1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="8"/>
+    </row>
+    <row r="2" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>96</v>
       </c>
@@ -563,7 +590,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -610,7 +637,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -622,30 +649,30 @@
       <c r="J4" s="3"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="7"/>
-      <c r="G5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="7"/>
-      <c r="M5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="7"/>
-    </row>
-    <row r="6" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="G5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="8"/>
+      <c r="M5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="8"/>
+    </row>
+    <row r="6" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>64</v>
       </c>
@@ -692,7 +719,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -739,51 +766,64 @@
         <v>800</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:17" ht="10" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-    </row>
-    <row r="10" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="7"/>
-      <c r="G11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="7"/>
-      <c r="M11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="7"/>
-    </row>
-    <row r="12" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:23" ht="9.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+    </row>
+    <row r="10" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
+      <c r="G11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="8"/>
+      <c r="M11" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="8"/>
+      <c r="S11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="8"/>
+    </row>
+    <row r="12" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>136</v>
       </c>
@@ -800,37 +840,52 @@
         <v>1680</v>
       </c>
       <c r="G12" s="1">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="H12" s="1">
-        <v>312</v>
+        <v>220</v>
       </c>
       <c r="I12" s="1">
         <v>1280</v>
       </c>
       <c r="J12" s="1">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="K12" s="2">
-        <v>1688</v>
+        <v>1650</v>
       </c>
       <c r="M12" s="1">
         <v>112</v>
       </c>
       <c r="N12" s="1">
-        <v>248</v>
+        <v>312</v>
       </c>
       <c r="O12" s="1">
         <v>1280</v>
       </c>
       <c r="P12" s="1">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="Q12" s="2">
         <v>1688</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S12" s="1">
+        <v>112</v>
+      </c>
+      <c r="T12" s="1">
+        <v>248</v>
+      </c>
+      <c r="U12" s="1">
+        <v>1280</v>
+      </c>
+      <c r="V12" s="1">
+        <v>48</v>
+      </c>
+      <c r="W12" s="2">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>3</v>
       </c>
@@ -847,74 +902,95 @@
         <v>828</v>
       </c>
       <c r="G13" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H13" s="1">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="I13" s="1">
-        <v>960</v>
+        <v>720</v>
       </c>
       <c r="J13" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K13" s="2">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="M13" s="1">
         <v>3</v>
       </c>
       <c r="N13" s="1">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O13" s="1">
-        <v>1024</v>
+        <v>960</v>
       </c>
       <c r="P13" s="1">
         <v>1</v>
       </c>
       <c r="Q13" s="2">
+        <v>1000</v>
+      </c>
+      <c r="S13" s="1">
+        <v>3</v>
+      </c>
+      <c r="T13" s="1">
+        <v>38</v>
+      </c>
+      <c r="U13" s="1">
+        <v>1024</v>
+      </c>
+      <c r="V13" s="1">
+        <v>1</v>
+      </c>
+      <c r="W13" s="2">
         <v>1066</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:17" ht="10" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-    </row>
-    <row r="16" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="7"/>
-      <c r="G17" s="5" t="s">
+    <row r="14" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:23" ht="9.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+    </row>
+    <row r="16" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="7"/>
-    </row>
-    <row r="18" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="8"/>
+      <c r="G17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="8"/>
+    </row>
+    <row r="18" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>152</v>
       </c>
@@ -931,22 +1007,22 @@
         <v>1904</v>
       </c>
       <c r="G18" s="1">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="H18" s="1">
-        <v>40</v>
+        <v>148</v>
       </c>
       <c r="I18" s="1">
         <v>1920</v>
       </c>
       <c r="J18" s="1">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="K18" s="2">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>3</v>
       </c>
@@ -963,27 +1039,24 @@
         <v>932</v>
       </c>
       <c r="G19" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H19" s="1">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="I19" s="1">
         <v>1080</v>
       </c>
       <c r="J19" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K19" s="2">
-        <v>1105</v>
+        <v>1125</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="M5:Q5"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="G11:K11"/>
+  <mergeCells count="12">
+    <mergeCell ref="S11:W11"/>
     <mergeCell ref="M11:Q11"/>
     <mergeCell ref="A17:E17"/>
     <mergeCell ref="G17:K17"/>
@@ -991,6 +1064,10 @@
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="G1:K1"/>
     <mergeCell ref="G5:K5"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="M5:Q5"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="G11:K11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -1002,11 +1079,12 @@
     <hyperlink ref="M5" r:id="rId6"/>
     <hyperlink ref="A11" r:id="rId7"/>
     <hyperlink ref="G11" r:id="rId8"/>
-    <hyperlink ref="M11" r:id="rId9"/>
-    <hyperlink ref="A17" r:id="rId10"/>
-    <hyperlink ref="G17" r:id="rId11"/>
+    <hyperlink ref="A17" r:id="rId9"/>
+    <hyperlink ref="G17" r:id="rId10"/>
+    <hyperlink ref="S11" r:id="rId11"/>
+    <hyperlink ref="M11" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>